--- a/normalised_responses.xlsx
+++ b/normalised_responses.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP165"/>
+  <dimension ref="A1:AP185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23049,6 +23049,2782 @@
         <v>5</v>
       </c>
     </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>1</v>
+      </c>
+      <c r="O166">
+        <v>1</v>
+      </c>
+      <c r="P166">
+        <v>1</v>
+      </c>
+      <c r="Q166">
+        <v>2</v>
+      </c>
+      <c r="R166">
+        <v>1</v>
+      </c>
+      <c r="S166">
+        <v>2</v>
+      </c>
+      <c r="T166">
+        <v>2</v>
+      </c>
+      <c r="U166">
+        <v>2</v>
+      </c>
+      <c r="V166">
+        <v>1</v>
+      </c>
+      <c r="W166">
+        <v>2</v>
+      </c>
+      <c r="X166">
+        <v>1</v>
+      </c>
+      <c r="Y166">
+        <v>1</v>
+      </c>
+      <c r="Z166">
+        <v>1</v>
+      </c>
+      <c r="AA166">
+        <v>1</v>
+      </c>
+      <c r="AB166">
+        <v>2</v>
+      </c>
+      <c r="AC166">
+        <v>2</v>
+      </c>
+      <c r="AD166">
+        <v>1</v>
+      </c>
+      <c r="AE166">
+        <v>1</v>
+      </c>
+      <c r="AF166">
+        <v>2</v>
+      </c>
+      <c r="AG166">
+        <v>1</v>
+      </c>
+      <c r="AH166">
+        <v>2</v>
+      </c>
+      <c r="AI166">
+        <v>2</v>
+      </c>
+      <c r="AJ166">
+        <v>1</v>
+      </c>
+      <c r="AK166">
+        <v>2</v>
+      </c>
+      <c r="AL166">
+        <v>2</v>
+      </c>
+      <c r="AM166">
+        <v>5</v>
+      </c>
+      <c r="AN166">
+        <v>5</v>
+      </c>
+      <c r="AO166">
+        <v>4</v>
+      </c>
+      <c r="AP166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>2</v>
+      </c>
+      <c r="O167">
+        <v>2</v>
+      </c>
+      <c r="P167">
+        <v>4</v>
+      </c>
+      <c r="Q167">
+        <v>4</v>
+      </c>
+      <c r="R167">
+        <v>3</v>
+      </c>
+      <c r="S167">
+        <v>3</v>
+      </c>
+      <c r="T167">
+        <v>1</v>
+      </c>
+      <c r="U167">
+        <v>2</v>
+      </c>
+      <c r="V167">
+        <v>3</v>
+      </c>
+      <c r="W167">
+        <v>3</v>
+      </c>
+      <c r="X167">
+        <v>4</v>
+      </c>
+      <c r="Y167">
+        <v>3</v>
+      </c>
+      <c r="Z167">
+        <v>3</v>
+      </c>
+      <c r="AA167">
+        <v>3</v>
+      </c>
+      <c r="AB167">
+        <v>3</v>
+      </c>
+      <c r="AC167">
+        <v>4</v>
+      </c>
+      <c r="AD167">
+        <v>4</v>
+      </c>
+      <c r="AE167">
+        <v>2</v>
+      </c>
+      <c r="AF167">
+        <v>5</v>
+      </c>
+      <c r="AG167">
+        <v>3</v>
+      </c>
+      <c r="AH167">
+        <v>2</v>
+      </c>
+      <c r="AI167">
+        <v>3</v>
+      </c>
+      <c r="AJ167">
+        <v>4</v>
+      </c>
+      <c r="AK167">
+        <v>2</v>
+      </c>
+      <c r="AL167">
+        <v>5</v>
+      </c>
+      <c r="AM167">
+        <v>3</v>
+      </c>
+      <c r="AN167">
+        <v>3</v>
+      </c>
+      <c r="AO167">
+        <v>2</v>
+      </c>
+      <c r="AP167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>2</v>
+      </c>
+      <c r="O168">
+        <v>3</v>
+      </c>
+      <c r="P168">
+        <v>3</v>
+      </c>
+      <c r="Q168">
+        <v>2</v>
+      </c>
+      <c r="R168">
+        <v>2</v>
+      </c>
+      <c r="S168">
+        <v>3</v>
+      </c>
+      <c r="T168">
+        <v>4</v>
+      </c>
+      <c r="U168">
+        <v>4</v>
+      </c>
+      <c r="V168">
+        <v>3</v>
+      </c>
+      <c r="W168">
+        <v>3</v>
+      </c>
+      <c r="X168">
+        <v>3</v>
+      </c>
+      <c r="Y168">
+        <v>5</v>
+      </c>
+      <c r="Z168">
+        <v>4</v>
+      </c>
+      <c r="AA168">
+        <v>2</v>
+      </c>
+      <c r="AB168">
+        <v>3</v>
+      </c>
+      <c r="AC168">
+        <v>4</v>
+      </c>
+      <c r="AD168">
+        <v>1</v>
+      </c>
+      <c r="AE168">
+        <v>1</v>
+      </c>
+      <c r="AF168">
+        <v>2</v>
+      </c>
+      <c r="AG168">
+        <v>5</v>
+      </c>
+      <c r="AH168">
+        <v>5</v>
+      </c>
+      <c r="AI168">
+        <v>3</v>
+      </c>
+      <c r="AJ168">
+        <v>2</v>
+      </c>
+      <c r="AK168">
+        <v>1</v>
+      </c>
+      <c r="AL168">
+        <v>3</v>
+      </c>
+      <c r="AM168">
+        <v>1</v>
+      </c>
+      <c r="AN168">
+        <v>5</v>
+      </c>
+      <c r="AO168">
+        <v>1</v>
+      </c>
+      <c r="AP168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>2</v>
+      </c>
+      <c r="O169">
+        <v>3</v>
+      </c>
+      <c r="P169">
+        <v>2</v>
+      </c>
+      <c r="Q169">
+        <v>3</v>
+      </c>
+      <c r="R169">
+        <v>3</v>
+      </c>
+      <c r="S169">
+        <v>4</v>
+      </c>
+      <c r="T169">
+        <v>3</v>
+      </c>
+      <c r="U169">
+        <v>3</v>
+      </c>
+      <c r="V169">
+        <v>2</v>
+      </c>
+      <c r="W169">
+        <v>4</v>
+      </c>
+      <c r="X169">
+        <v>2</v>
+      </c>
+      <c r="Y169">
+        <v>2</v>
+      </c>
+      <c r="Z169">
+        <v>4</v>
+      </c>
+      <c r="AA169">
+        <v>2</v>
+      </c>
+      <c r="AB169">
+        <v>1</v>
+      </c>
+      <c r="AC169">
+        <v>4</v>
+      </c>
+      <c r="AD169">
+        <v>2</v>
+      </c>
+      <c r="AE169">
+        <v>2</v>
+      </c>
+      <c r="AF169">
+        <v>4</v>
+      </c>
+      <c r="AG169">
+        <v>2</v>
+      </c>
+      <c r="AH169">
+        <v>2</v>
+      </c>
+      <c r="AI169">
+        <v>4</v>
+      </c>
+      <c r="AJ169">
+        <v>4</v>
+      </c>
+      <c r="AK169">
+        <v>1</v>
+      </c>
+      <c r="AL169">
+        <v>3</v>
+      </c>
+      <c r="AM169">
+        <v>2</v>
+      </c>
+      <c r="AN169">
+        <v>2</v>
+      </c>
+      <c r="AO169">
+        <v>2</v>
+      </c>
+      <c r="AP169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>3</v>
+      </c>
+      <c r="O170">
+        <v>1</v>
+      </c>
+      <c r="P170">
+        <v>3</v>
+      </c>
+      <c r="Q170">
+        <v>3</v>
+      </c>
+      <c r="R170">
+        <v>2</v>
+      </c>
+      <c r="S170">
+        <v>1</v>
+      </c>
+      <c r="T170">
+        <v>1</v>
+      </c>
+      <c r="U170">
+        <v>2</v>
+      </c>
+      <c r="V170">
+        <v>4</v>
+      </c>
+      <c r="W170">
+        <v>5</v>
+      </c>
+      <c r="X170">
+        <v>5</v>
+      </c>
+      <c r="Y170">
+        <v>5</v>
+      </c>
+      <c r="Z170">
+        <v>5</v>
+      </c>
+      <c r="AA170">
+        <v>5</v>
+      </c>
+      <c r="AB170">
+        <v>5</v>
+      </c>
+      <c r="AC170">
+        <v>5</v>
+      </c>
+      <c r="AD170">
+        <v>5</v>
+      </c>
+      <c r="AE170">
+        <v>5</v>
+      </c>
+      <c r="AF170">
+        <v>5</v>
+      </c>
+      <c r="AG170">
+        <v>5</v>
+      </c>
+      <c r="AH170">
+        <v>5</v>
+      </c>
+      <c r="AI170">
+        <v>5</v>
+      </c>
+      <c r="AJ170">
+        <v>5</v>
+      </c>
+      <c r="AK170">
+        <v>5</v>
+      </c>
+      <c r="AL170">
+        <v>5</v>
+      </c>
+      <c r="AM170">
+        <v>1</v>
+      </c>
+      <c r="AN170">
+        <v>1</v>
+      </c>
+      <c r="AO170">
+        <v>1</v>
+      </c>
+      <c r="AP170">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>1</v>
+      </c>
+      <c r="O171">
+        <v>3</v>
+      </c>
+      <c r="P171">
+        <v>2</v>
+      </c>
+      <c r="Q171">
+        <v>4</v>
+      </c>
+      <c r="R171">
+        <v>3</v>
+      </c>
+      <c r="S171">
+        <v>4</v>
+      </c>
+      <c r="T171">
+        <v>3</v>
+      </c>
+      <c r="U171">
+        <v>2</v>
+      </c>
+      <c r="V171">
+        <v>3</v>
+      </c>
+      <c r="W171">
+        <v>3</v>
+      </c>
+      <c r="X171">
+        <v>3</v>
+      </c>
+      <c r="Y171">
+        <v>1</v>
+      </c>
+      <c r="Z171">
+        <v>3</v>
+      </c>
+      <c r="AA171">
+        <v>1</v>
+      </c>
+      <c r="AB171">
+        <v>1</v>
+      </c>
+      <c r="AC171">
+        <v>3</v>
+      </c>
+      <c r="AD171">
+        <v>3</v>
+      </c>
+      <c r="AE171">
+        <v>2</v>
+      </c>
+      <c r="AF171">
+        <v>2</v>
+      </c>
+      <c r="AG171">
+        <v>2</v>
+      </c>
+      <c r="AH171">
+        <v>1</v>
+      </c>
+      <c r="AI171">
+        <v>5</v>
+      </c>
+      <c r="AJ171">
+        <v>3</v>
+      </c>
+      <c r="AK171">
+        <v>2</v>
+      </c>
+      <c r="AL171">
+        <v>4</v>
+      </c>
+      <c r="AM171">
+        <v>3</v>
+      </c>
+      <c r="AN171">
+        <v>4</v>
+      </c>
+      <c r="AO171">
+        <v>2</v>
+      </c>
+      <c r="AP171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>4</v>
+      </c>
+      <c r="O172">
+        <v>1</v>
+      </c>
+      <c r="P172">
+        <v>2</v>
+      </c>
+      <c r="Q172">
+        <v>4</v>
+      </c>
+      <c r="R172">
+        <v>3</v>
+      </c>
+      <c r="S172">
+        <v>4</v>
+      </c>
+      <c r="T172">
+        <v>3</v>
+      </c>
+      <c r="U172">
+        <v>4</v>
+      </c>
+      <c r="V172">
+        <v>3</v>
+      </c>
+      <c r="W172">
+        <v>2</v>
+      </c>
+      <c r="X172">
+        <v>2</v>
+      </c>
+      <c r="Y172">
+        <v>3</v>
+      </c>
+      <c r="Z172">
+        <v>3</v>
+      </c>
+      <c r="AA172">
+        <v>1</v>
+      </c>
+      <c r="AB172">
+        <v>3</v>
+      </c>
+      <c r="AC172">
+        <v>3</v>
+      </c>
+      <c r="AD172">
+        <v>3</v>
+      </c>
+      <c r="AE172">
+        <v>2</v>
+      </c>
+      <c r="AF172">
+        <v>4</v>
+      </c>
+      <c r="AG172">
+        <v>4</v>
+      </c>
+      <c r="AH172">
+        <v>2</v>
+      </c>
+      <c r="AI172">
+        <v>3</v>
+      </c>
+      <c r="AJ172">
+        <v>4</v>
+      </c>
+      <c r="AK172">
+        <v>3</v>
+      </c>
+      <c r="AL172">
+        <v>3</v>
+      </c>
+      <c r="AM172">
+        <v>1</v>
+      </c>
+      <c r="AN172">
+        <v>3</v>
+      </c>
+      <c r="AO172">
+        <v>2</v>
+      </c>
+      <c r="AP172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>1</v>
+      </c>
+      <c r="O173">
+        <v>2</v>
+      </c>
+      <c r="P173">
+        <v>2</v>
+      </c>
+      <c r="Q173">
+        <v>2</v>
+      </c>
+      <c r="R173">
+        <v>2</v>
+      </c>
+      <c r="T173">
+        <v>1</v>
+      </c>
+      <c r="U173">
+        <v>1</v>
+      </c>
+      <c r="V173">
+        <v>1</v>
+      </c>
+      <c r="W173">
+        <v>3</v>
+      </c>
+      <c r="X173">
+        <v>1</v>
+      </c>
+      <c r="Y173">
+        <v>3</v>
+      </c>
+      <c r="Z173">
+        <v>5</v>
+      </c>
+      <c r="AA173">
+        <v>3</v>
+      </c>
+      <c r="AB173">
+        <v>1</v>
+      </c>
+      <c r="AC173">
+        <v>4</v>
+      </c>
+      <c r="AD173">
+        <v>5</v>
+      </c>
+      <c r="AE173">
+        <v>4</v>
+      </c>
+      <c r="AF173">
+        <v>5</v>
+      </c>
+      <c r="AG173">
+        <v>2</v>
+      </c>
+      <c r="AH173">
+        <v>3</v>
+      </c>
+      <c r="AI173">
+        <v>4</v>
+      </c>
+      <c r="AJ173">
+        <v>2</v>
+      </c>
+      <c r="AK173">
+        <v>2</v>
+      </c>
+      <c r="AL173">
+        <v>1</v>
+      </c>
+      <c r="AM173">
+        <v>1</v>
+      </c>
+      <c r="AN173">
+        <v>4</v>
+      </c>
+      <c r="AO173">
+        <v>4</v>
+      </c>
+      <c r="AP173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>3</v>
+      </c>
+      <c r="O174">
+        <v>2</v>
+      </c>
+      <c r="P174">
+        <v>2</v>
+      </c>
+      <c r="Q174">
+        <v>3</v>
+      </c>
+      <c r="R174">
+        <v>4</v>
+      </c>
+      <c r="S174">
+        <v>2</v>
+      </c>
+      <c r="T174">
+        <v>3</v>
+      </c>
+      <c r="U174">
+        <v>3</v>
+      </c>
+      <c r="V174">
+        <v>3</v>
+      </c>
+      <c r="W174">
+        <v>1</v>
+      </c>
+      <c r="X174">
+        <v>3</v>
+      </c>
+      <c r="Y174">
+        <v>2</v>
+      </c>
+      <c r="Z174">
+        <v>1</v>
+      </c>
+      <c r="AA174">
+        <v>1</v>
+      </c>
+      <c r="AB174">
+        <v>2</v>
+      </c>
+      <c r="AC174">
+        <v>4</v>
+      </c>
+      <c r="AD174">
+        <v>4</v>
+      </c>
+      <c r="AE174">
+        <v>2</v>
+      </c>
+      <c r="AF174">
+        <v>2</v>
+      </c>
+      <c r="AG174">
+        <v>2</v>
+      </c>
+      <c r="AH174">
+        <v>2</v>
+      </c>
+      <c r="AI174">
+        <v>3</v>
+      </c>
+      <c r="AJ174">
+        <v>3</v>
+      </c>
+      <c r="AK174">
+        <v>3</v>
+      </c>
+      <c r="AL174">
+        <v>3</v>
+      </c>
+      <c r="AM174">
+        <v>3</v>
+      </c>
+      <c r="AN174">
+        <v>3</v>
+      </c>
+      <c r="AO174">
+        <v>3</v>
+      </c>
+      <c r="AP174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>2</v>
+      </c>
+      <c r="O175">
+        <v>1</v>
+      </c>
+      <c r="P175">
+        <v>2</v>
+      </c>
+      <c r="Q175">
+        <v>3</v>
+      </c>
+      <c r="R175">
+        <v>1</v>
+      </c>
+      <c r="S175">
+        <v>3</v>
+      </c>
+      <c r="T175">
+        <v>2</v>
+      </c>
+      <c r="U175">
+        <v>3</v>
+      </c>
+      <c r="V175">
+        <v>3</v>
+      </c>
+      <c r="W175">
+        <v>3</v>
+      </c>
+      <c r="X175">
+        <v>2</v>
+      </c>
+      <c r="Y175">
+        <v>2</v>
+      </c>
+      <c r="Z175">
+        <v>1</v>
+      </c>
+      <c r="AA175">
+        <v>2</v>
+      </c>
+      <c r="AB175">
+        <v>2</v>
+      </c>
+      <c r="AC175">
+        <v>2</v>
+      </c>
+      <c r="AD175">
+        <v>2</v>
+      </c>
+      <c r="AE175">
+        <v>1</v>
+      </c>
+      <c r="AF175">
+        <v>3</v>
+      </c>
+      <c r="AG175">
+        <v>2</v>
+      </c>
+      <c r="AH175">
+        <v>2</v>
+      </c>
+      <c r="AI175">
+        <v>4</v>
+      </c>
+      <c r="AJ175">
+        <v>2</v>
+      </c>
+      <c r="AK175">
+        <v>3</v>
+      </c>
+      <c r="AL175">
+        <v>2</v>
+      </c>
+      <c r="AM175">
+        <v>5</v>
+      </c>
+      <c r="AN175">
+        <v>3</v>
+      </c>
+      <c r="AO175">
+        <v>3</v>
+      </c>
+      <c r="AP175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176">
+        <v>2</v>
+      </c>
+      <c r="P176">
+        <v>2</v>
+      </c>
+      <c r="Q176">
+        <v>2</v>
+      </c>
+      <c r="R176">
+        <v>2</v>
+      </c>
+      <c r="S176">
+        <v>4</v>
+      </c>
+      <c r="T176">
+        <v>3</v>
+      </c>
+      <c r="U176">
+        <v>3</v>
+      </c>
+      <c r="V176">
+        <v>4</v>
+      </c>
+      <c r="W176">
+        <v>3</v>
+      </c>
+      <c r="X176">
+        <v>2</v>
+      </c>
+      <c r="Y176">
+        <v>1</v>
+      </c>
+      <c r="Z176">
+        <v>2</v>
+      </c>
+      <c r="AA176">
+        <v>2</v>
+      </c>
+      <c r="AB176">
+        <v>4</v>
+      </c>
+      <c r="AC176">
+        <v>5</v>
+      </c>
+      <c r="AD176">
+        <v>4</v>
+      </c>
+      <c r="AE176">
+        <v>3</v>
+      </c>
+      <c r="AF176">
+        <v>5</v>
+      </c>
+      <c r="AG176">
+        <v>4</v>
+      </c>
+      <c r="AH176">
+        <v>2</v>
+      </c>
+      <c r="AI176">
+        <v>3</v>
+      </c>
+      <c r="AJ176">
+        <v>3</v>
+      </c>
+      <c r="AK176">
+        <v>2</v>
+      </c>
+      <c r="AL176">
+        <v>4</v>
+      </c>
+      <c r="AM176">
+        <v>2</v>
+      </c>
+      <c r="AN176">
+        <v>2</v>
+      </c>
+      <c r="AO176">
+        <v>1</v>
+      </c>
+      <c r="AP176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G177">
+        <v>2</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>3</v>
+      </c>
+      <c r="O177">
+        <v>3</v>
+      </c>
+      <c r="P177">
+        <v>2</v>
+      </c>
+      <c r="Q177">
+        <v>2</v>
+      </c>
+      <c r="R177">
+        <v>2</v>
+      </c>
+      <c r="S177">
+        <v>3</v>
+      </c>
+      <c r="T177">
+        <v>3</v>
+      </c>
+      <c r="U177">
+        <v>2</v>
+      </c>
+      <c r="V177">
+        <v>2</v>
+      </c>
+      <c r="W177">
+        <v>2</v>
+      </c>
+      <c r="X177">
+        <v>3</v>
+      </c>
+      <c r="Y177">
+        <v>2</v>
+      </c>
+      <c r="Z177">
+        <v>3</v>
+      </c>
+      <c r="AA177">
+        <v>2</v>
+      </c>
+      <c r="AB177">
+        <v>3</v>
+      </c>
+      <c r="AC177">
+        <v>4</v>
+      </c>
+      <c r="AD177">
+        <v>5</v>
+      </c>
+      <c r="AE177">
+        <v>4</v>
+      </c>
+      <c r="AF177">
+        <v>2</v>
+      </c>
+      <c r="AG177">
+        <v>2</v>
+      </c>
+      <c r="AH177">
+        <v>4</v>
+      </c>
+      <c r="AI177">
+        <v>4</v>
+      </c>
+      <c r="AJ177">
+        <v>3</v>
+      </c>
+      <c r="AK177">
+        <v>4</v>
+      </c>
+      <c r="AL177">
+        <v>3</v>
+      </c>
+      <c r="AM177">
+        <v>3</v>
+      </c>
+      <c r="AN177">
+        <v>3</v>
+      </c>
+      <c r="AO177">
+        <v>2</v>
+      </c>
+      <c r="AP177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G178">
+        <v>3</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178">
+        <v>3</v>
+      </c>
+      <c r="P178">
+        <v>4</v>
+      </c>
+      <c r="Q178">
+        <v>3</v>
+      </c>
+      <c r="R178">
+        <v>4</v>
+      </c>
+      <c r="S178">
+        <v>3</v>
+      </c>
+      <c r="T178">
+        <v>2</v>
+      </c>
+      <c r="U178">
+        <v>4</v>
+      </c>
+      <c r="V178">
+        <v>1</v>
+      </c>
+      <c r="W178">
+        <v>4</v>
+      </c>
+      <c r="X178">
+        <v>2</v>
+      </c>
+      <c r="Y178">
+        <v>3</v>
+      </c>
+      <c r="Z178">
+        <v>4</v>
+      </c>
+      <c r="AA178">
+        <v>4</v>
+      </c>
+      <c r="AB178">
+        <v>5</v>
+      </c>
+      <c r="AC178">
+        <v>3</v>
+      </c>
+      <c r="AD178">
+        <v>1</v>
+      </c>
+      <c r="AE178">
+        <v>3</v>
+      </c>
+      <c r="AF178">
+        <v>2</v>
+      </c>
+      <c r="AG178">
+        <v>2</v>
+      </c>
+      <c r="AH178">
+        <v>3</v>
+      </c>
+      <c r="AI178">
+        <v>2</v>
+      </c>
+      <c r="AJ178">
+        <v>3</v>
+      </c>
+      <c r="AK178">
+        <v>3</v>
+      </c>
+      <c r="AL178">
+        <v>2</v>
+      </c>
+      <c r="AM178">
+        <v>3</v>
+      </c>
+      <c r="AN178">
+        <v>3</v>
+      </c>
+      <c r="AO178">
+        <v>4</v>
+      </c>
+      <c r="AP178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>3</v>
+      </c>
+      <c r="O179">
+        <v>2</v>
+      </c>
+      <c r="P179">
+        <v>3</v>
+      </c>
+      <c r="Q179">
+        <v>4</v>
+      </c>
+      <c r="R179">
+        <v>3</v>
+      </c>
+      <c r="S179">
+        <v>1</v>
+      </c>
+      <c r="T179">
+        <v>1</v>
+      </c>
+      <c r="U179">
+        <v>3</v>
+      </c>
+      <c r="V179">
+        <v>4</v>
+      </c>
+      <c r="W179">
+        <v>1</v>
+      </c>
+      <c r="X179">
+        <v>1</v>
+      </c>
+      <c r="Y179">
+        <v>1</v>
+      </c>
+      <c r="Z179">
+        <v>4</v>
+      </c>
+      <c r="AA179">
+        <v>2</v>
+      </c>
+      <c r="AB179">
+        <v>2</v>
+      </c>
+      <c r="AC179">
+        <v>4</v>
+      </c>
+      <c r="AD179">
+        <v>4</v>
+      </c>
+      <c r="AE179">
+        <v>3</v>
+      </c>
+      <c r="AF179">
+        <v>4</v>
+      </c>
+      <c r="AG179">
+        <v>2</v>
+      </c>
+      <c r="AH179">
+        <v>1</v>
+      </c>
+      <c r="AI179">
+        <v>3</v>
+      </c>
+      <c r="AJ179">
+        <v>3</v>
+      </c>
+      <c r="AK179">
+        <v>3</v>
+      </c>
+      <c r="AL179">
+        <v>2</v>
+      </c>
+      <c r="AM179">
+        <v>2</v>
+      </c>
+      <c r="AN179">
+        <v>2</v>
+      </c>
+      <c r="AO179">
+        <v>2</v>
+      </c>
+      <c r="AP179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180">
+        <v>3</v>
+      </c>
+      <c r="P180">
+        <v>3</v>
+      </c>
+      <c r="Q180">
+        <v>3</v>
+      </c>
+      <c r="R180">
+        <v>2</v>
+      </c>
+      <c r="S180">
+        <v>2</v>
+      </c>
+      <c r="T180">
+        <v>2</v>
+      </c>
+      <c r="U180">
+        <v>1</v>
+      </c>
+      <c r="V180">
+        <v>2</v>
+      </c>
+      <c r="W180">
+        <v>1</v>
+      </c>
+      <c r="X180">
+        <v>5</v>
+      </c>
+      <c r="Y180">
+        <v>1</v>
+      </c>
+      <c r="Z180">
+        <v>3</v>
+      </c>
+      <c r="AA180">
+        <v>1</v>
+      </c>
+      <c r="AB180">
+        <v>1</v>
+      </c>
+      <c r="AC180">
+        <v>5</v>
+      </c>
+      <c r="AD180">
+        <v>1</v>
+      </c>
+      <c r="AE180">
+        <v>2</v>
+      </c>
+      <c r="AF180">
+        <v>2</v>
+      </c>
+      <c r="AG180">
+        <v>3</v>
+      </c>
+      <c r="AH180">
+        <v>1</v>
+      </c>
+      <c r="AI180">
+        <v>3</v>
+      </c>
+      <c r="AJ180">
+        <v>1</v>
+      </c>
+      <c r="AK180">
+        <v>1</v>
+      </c>
+      <c r="AL180">
+        <v>4</v>
+      </c>
+      <c r="AM180">
+        <v>2</v>
+      </c>
+      <c r="AN180">
+        <v>1</v>
+      </c>
+      <c r="AO180">
+        <v>2</v>
+      </c>
+      <c r="AP180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>4</v>
+      </c>
+      <c r="O181">
+        <v>2</v>
+      </c>
+      <c r="P181">
+        <v>1</v>
+      </c>
+      <c r="Q181">
+        <v>1</v>
+      </c>
+      <c r="R181">
+        <v>1</v>
+      </c>
+      <c r="S181">
+        <v>3</v>
+      </c>
+      <c r="T181">
+        <v>2</v>
+      </c>
+      <c r="U181">
+        <v>2</v>
+      </c>
+      <c r="V181">
+        <v>3</v>
+      </c>
+      <c r="W181">
+        <v>2</v>
+      </c>
+      <c r="X181">
+        <v>2</v>
+      </c>
+      <c r="Y181">
+        <v>1</v>
+      </c>
+      <c r="Z181">
+        <v>5</v>
+      </c>
+      <c r="AA181">
+        <v>2</v>
+      </c>
+      <c r="AB181">
+        <v>4</v>
+      </c>
+      <c r="AC181">
+        <v>3</v>
+      </c>
+      <c r="AD181">
+        <v>2</v>
+      </c>
+      <c r="AE181">
+        <v>4</v>
+      </c>
+      <c r="AF181">
+        <v>4</v>
+      </c>
+      <c r="AG181">
+        <v>1</v>
+      </c>
+      <c r="AI181">
+        <v>4</v>
+      </c>
+      <c r="AJ181">
+        <v>4</v>
+      </c>
+      <c r="AK181">
+        <v>4</v>
+      </c>
+      <c r="AL181">
+        <v>1</v>
+      </c>
+      <c r="AM181">
+        <v>2</v>
+      </c>
+      <c r="AN181">
+        <v>2</v>
+      </c>
+      <c r="AO181">
+        <v>3</v>
+      </c>
+      <c r="AP181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>3</v>
+      </c>
+      <c r="O182">
+        <v>2</v>
+      </c>
+      <c r="P182">
+        <v>1</v>
+      </c>
+      <c r="Q182">
+        <v>3</v>
+      </c>
+      <c r="R182">
+        <v>3</v>
+      </c>
+      <c r="S182">
+        <v>2</v>
+      </c>
+      <c r="T182">
+        <v>3</v>
+      </c>
+      <c r="U182">
+        <v>2</v>
+      </c>
+      <c r="V182">
+        <v>2</v>
+      </c>
+      <c r="W182">
+        <v>3</v>
+      </c>
+      <c r="X182">
+        <v>4</v>
+      </c>
+      <c r="Z182">
+        <v>1</v>
+      </c>
+      <c r="AA182">
+        <v>2</v>
+      </c>
+      <c r="AB182">
+        <v>3</v>
+      </c>
+      <c r="AC182">
+        <v>4</v>
+      </c>
+      <c r="AD182">
+        <v>4</v>
+      </c>
+      <c r="AE182">
+        <v>4</v>
+      </c>
+      <c r="AF182">
+        <v>3</v>
+      </c>
+      <c r="AG182">
+        <v>3</v>
+      </c>
+      <c r="AH182">
+        <v>1</v>
+      </c>
+      <c r="AI182">
+        <v>1</v>
+      </c>
+      <c r="AJ182">
+        <v>2</v>
+      </c>
+      <c r="AK182">
+        <v>1</v>
+      </c>
+      <c r="AL182">
+        <v>3</v>
+      </c>
+      <c r="AM182">
+        <v>4</v>
+      </c>
+      <c r="AN182">
+        <v>5</v>
+      </c>
+      <c r="AO182">
+        <v>1</v>
+      </c>
+      <c r="AP182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>2</v>
+      </c>
+      <c r="O183">
+        <v>2</v>
+      </c>
+      <c r="P183">
+        <v>3</v>
+      </c>
+      <c r="Q183">
+        <v>1</v>
+      </c>
+      <c r="R183">
+        <v>4</v>
+      </c>
+      <c r="S183">
+        <v>3</v>
+      </c>
+      <c r="T183">
+        <v>3</v>
+      </c>
+      <c r="U183">
+        <v>4</v>
+      </c>
+      <c r="V183">
+        <v>2</v>
+      </c>
+      <c r="W183">
+        <v>3</v>
+      </c>
+      <c r="X183">
+        <v>2</v>
+      </c>
+      <c r="Y183">
+        <v>3</v>
+      </c>
+      <c r="Z183">
+        <v>3</v>
+      </c>
+      <c r="AA183">
+        <v>1</v>
+      </c>
+      <c r="AB183">
+        <v>2</v>
+      </c>
+      <c r="AC183">
+        <v>3</v>
+      </c>
+      <c r="AD183">
+        <v>1</v>
+      </c>
+      <c r="AE183">
+        <v>4</v>
+      </c>
+      <c r="AF183">
+        <v>2</v>
+      </c>
+      <c r="AG183">
+        <v>3</v>
+      </c>
+      <c r="AH183">
+        <v>3</v>
+      </c>
+      <c r="AJ183">
+        <v>2</v>
+      </c>
+      <c r="AK183">
+        <v>2</v>
+      </c>
+      <c r="AL183">
+        <v>2</v>
+      </c>
+      <c r="AM183">
+        <v>3</v>
+      </c>
+      <c r="AN183">
+        <v>3</v>
+      </c>
+      <c r="AO183">
+        <v>4</v>
+      </c>
+      <c r="AP183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>2</v>
+      </c>
+      <c r="O184">
+        <v>2</v>
+      </c>
+      <c r="P184">
+        <v>2</v>
+      </c>
+      <c r="Q184">
+        <v>2</v>
+      </c>
+      <c r="R184">
+        <v>4</v>
+      </c>
+      <c r="S184">
+        <v>4</v>
+      </c>
+      <c r="T184">
+        <v>3</v>
+      </c>
+      <c r="U184">
+        <v>3</v>
+      </c>
+      <c r="V184">
+        <v>4</v>
+      </c>
+      <c r="W184">
+        <v>1</v>
+      </c>
+      <c r="X184">
+        <v>1</v>
+      </c>
+      <c r="Y184">
+        <v>1</v>
+      </c>
+      <c r="Z184">
+        <v>1</v>
+      </c>
+      <c r="AA184">
+        <v>1</v>
+      </c>
+      <c r="AB184">
+        <v>2</v>
+      </c>
+      <c r="AC184">
+        <v>1</v>
+      </c>
+      <c r="AD184">
+        <v>1</v>
+      </c>
+      <c r="AE184">
+        <v>2</v>
+      </c>
+      <c r="AF184">
+        <v>4</v>
+      </c>
+      <c r="AG184">
+        <v>1</v>
+      </c>
+      <c r="AH184">
+        <v>2</v>
+      </c>
+      <c r="AI184">
+        <v>3</v>
+      </c>
+      <c r="AK184">
+        <v>1</v>
+      </c>
+      <c r="AL184">
+        <v>2</v>
+      </c>
+      <c r="AM184">
+        <v>5</v>
+      </c>
+      <c r="AO184">
+        <v>3</v>
+      </c>
+      <c r="AP184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>2</v>
+      </c>
+      <c r="O185">
+        <v>2</v>
+      </c>
+      <c r="P185">
+        <v>3</v>
+      </c>
+      <c r="Q185">
+        <v>3</v>
+      </c>
+      <c r="R185">
+        <v>3</v>
+      </c>
+      <c r="S185">
+        <v>4</v>
+      </c>
+      <c r="T185">
+        <v>1</v>
+      </c>
+      <c r="U185">
+        <v>1</v>
+      </c>
+      <c r="V185">
+        <v>1</v>
+      </c>
+      <c r="W185">
+        <v>2</v>
+      </c>
+      <c r="X185">
+        <v>4</v>
+      </c>
+      <c r="Y185">
+        <v>1</v>
+      </c>
+      <c r="Z185">
+        <v>5</v>
+      </c>
+      <c r="AA185">
+        <v>2</v>
+      </c>
+      <c r="AB185">
+        <v>3</v>
+      </c>
+      <c r="AC185">
+        <v>3</v>
+      </c>
+      <c r="AD185">
+        <v>1</v>
+      </c>
+      <c r="AE185">
+        <v>3</v>
+      </c>
+      <c r="AF185">
+        <v>5</v>
+      </c>
+      <c r="AG185">
+        <v>3</v>
+      </c>
+      <c r="AH185">
+        <v>2</v>
+      </c>
+      <c r="AI185">
+        <v>4</v>
+      </c>
+      <c r="AJ185">
+        <v>3</v>
+      </c>
+      <c r="AK185">
+        <v>3</v>
+      </c>
+      <c r="AL185">
+        <v>1</v>
+      </c>
+      <c r="AM185">
+        <v>1</v>
+      </c>
+      <c r="AN185">
+        <v>1</v>
+      </c>
+      <c r="AO185">
+        <v>2</v>
+      </c>
+      <c r="AP185">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/normalised_responses.xlsx
+++ b/normalised_responses.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP271"/>
+  <dimension ref="A1:AP294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -35673,7 +35673,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>9.c</t>
+          <t>9.C</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -36233,7 +36233,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>9C</t>
+          <t>9.C</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -36373,7 +36373,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>9C</t>
+          <t>9.C</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -36510,7 +36510,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>9C</t>
+          <t>9.C</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -36930,7 +36930,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>9.c</t>
+          <t>9.C</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -37207,7 +37207,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>9C</t>
+          <t>9.C</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -37596,6 +37596,3163 @@
       </c>
       <c r="AP271">
         <v>2</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Zlínský</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G272">
+        <v>2</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>1</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272">
+        <v>3</v>
+      </c>
+      <c r="O272">
+        <v>4</v>
+      </c>
+      <c r="P272">
+        <v>2</v>
+      </c>
+      <c r="Q272">
+        <v>2</v>
+      </c>
+      <c r="R272">
+        <v>1</v>
+      </c>
+      <c r="S272">
+        <v>2</v>
+      </c>
+      <c r="T272">
+        <v>1</v>
+      </c>
+      <c r="U272">
+        <v>3</v>
+      </c>
+      <c r="V272">
+        <v>1</v>
+      </c>
+      <c r="W272">
+        <v>3</v>
+      </c>
+      <c r="X272">
+        <v>3</v>
+      </c>
+      <c r="Y272">
+        <v>3</v>
+      </c>
+      <c r="Z272">
+        <v>3</v>
+      </c>
+      <c r="AA272">
+        <v>3</v>
+      </c>
+      <c r="AB272">
+        <v>3</v>
+      </c>
+      <c r="AC272">
+        <v>3</v>
+      </c>
+      <c r="AD272">
+        <v>3</v>
+      </c>
+      <c r="AE272">
+        <v>3</v>
+      </c>
+      <c r="AF272">
+        <v>3</v>
+      </c>
+      <c r="AG272">
+        <v>3</v>
+      </c>
+      <c r="AH272">
+        <v>3</v>
+      </c>
+      <c r="AI272">
+        <v>3</v>
+      </c>
+      <c r="AJ272">
+        <v>3</v>
+      </c>
+      <c r="AK272">
+        <v>3</v>
+      </c>
+      <c r="AL272">
+        <v>3</v>
+      </c>
+      <c r="AM272">
+        <v>3</v>
+      </c>
+      <c r="AN272">
+        <v>3</v>
+      </c>
+      <c r="AO272">
+        <v>3</v>
+      </c>
+      <c r="AP272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Zlínský</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+      <c r="H273">
+        <v>1</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>1</v>
+      </c>
+      <c r="K273">
+        <v>1</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+      <c r="M273">
+        <v>0</v>
+      </c>
+      <c r="N273">
+        <v>2</v>
+      </c>
+      <c r="O273">
+        <v>1</v>
+      </c>
+      <c r="P273">
+        <v>2</v>
+      </c>
+      <c r="Q273">
+        <v>1</v>
+      </c>
+      <c r="R273">
+        <v>1</v>
+      </c>
+      <c r="S273">
+        <v>1</v>
+      </c>
+      <c r="T273">
+        <v>2</v>
+      </c>
+      <c r="U273">
+        <v>1</v>
+      </c>
+      <c r="V273">
+        <v>1</v>
+      </c>
+      <c r="W273">
+        <v>2</v>
+      </c>
+      <c r="X273">
+        <v>1</v>
+      </c>
+      <c r="Y273">
+        <v>1</v>
+      </c>
+      <c r="Z273">
+        <v>2</v>
+      </c>
+      <c r="AA273">
+        <v>2</v>
+      </c>
+      <c r="AB273">
+        <v>2</v>
+      </c>
+      <c r="AC273">
+        <v>2</v>
+      </c>
+      <c r="AD273">
+        <v>1</v>
+      </c>
+      <c r="AE273">
+        <v>2</v>
+      </c>
+      <c r="AF273">
+        <v>1</v>
+      </c>
+      <c r="AG273">
+        <v>2</v>
+      </c>
+      <c r="AH273">
+        <v>2</v>
+      </c>
+      <c r="AI273">
+        <v>1</v>
+      </c>
+      <c r="AJ273">
+        <v>1</v>
+      </c>
+      <c r="AK273">
+        <v>2</v>
+      </c>
+      <c r="AL273">
+        <v>2</v>
+      </c>
+      <c r="AM273">
+        <v>5</v>
+      </c>
+      <c r="AN273">
+        <v>4</v>
+      </c>
+      <c r="AO273">
+        <v>5</v>
+      </c>
+      <c r="AP273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Zlínský</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="H274">
+        <v>1</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>1</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
+      <c r="M274">
+        <v>1</v>
+      </c>
+      <c r="N274">
+        <v>1</v>
+      </c>
+      <c r="O274">
+        <v>2</v>
+      </c>
+      <c r="P274">
+        <v>2</v>
+      </c>
+      <c r="Q274">
+        <v>3</v>
+      </c>
+      <c r="R274">
+        <v>2</v>
+      </c>
+      <c r="S274">
+        <v>4</v>
+      </c>
+      <c r="T274">
+        <v>3</v>
+      </c>
+      <c r="U274">
+        <v>4</v>
+      </c>
+      <c r="V274">
+        <v>4</v>
+      </c>
+      <c r="W274">
+        <v>1</v>
+      </c>
+      <c r="X274">
+        <v>4</v>
+      </c>
+      <c r="Y274">
+        <v>3</v>
+      </c>
+      <c r="Z274">
+        <v>4</v>
+      </c>
+      <c r="AA274">
+        <v>3</v>
+      </c>
+      <c r="AB274">
+        <v>3</v>
+      </c>
+      <c r="AC274">
+        <v>3</v>
+      </c>
+      <c r="AD274">
+        <v>3</v>
+      </c>
+      <c r="AE274">
+        <v>3</v>
+      </c>
+      <c r="AF274">
+        <v>4</v>
+      </c>
+      <c r="AG274">
+        <v>3</v>
+      </c>
+      <c r="AH274">
+        <v>2</v>
+      </c>
+      <c r="AI274">
+        <v>3</v>
+      </c>
+      <c r="AJ274">
+        <v>3</v>
+      </c>
+      <c r="AK274">
+        <v>3</v>
+      </c>
+      <c r="AL274">
+        <v>4</v>
+      </c>
+      <c r="AM274">
+        <v>2</v>
+      </c>
+      <c r="AN274">
+        <v>4</v>
+      </c>
+      <c r="AO274">
+        <v>1</v>
+      </c>
+      <c r="AP274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Zlínský</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="H275">
+        <v>1</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>1</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>1</v>
+      </c>
+      <c r="M275">
+        <v>1</v>
+      </c>
+      <c r="N275">
+        <v>2</v>
+      </c>
+      <c r="O275">
+        <v>2</v>
+      </c>
+      <c r="P275">
+        <v>4</v>
+      </c>
+      <c r="Q275">
+        <v>4</v>
+      </c>
+      <c r="R275">
+        <v>3</v>
+      </c>
+      <c r="S275">
+        <v>4</v>
+      </c>
+      <c r="T275">
+        <v>3</v>
+      </c>
+      <c r="U275">
+        <v>3</v>
+      </c>
+      <c r="V275">
+        <v>4</v>
+      </c>
+      <c r="W275">
+        <v>3</v>
+      </c>
+      <c r="X275">
+        <v>4</v>
+      </c>
+      <c r="Y275">
+        <v>2</v>
+      </c>
+      <c r="Z275">
+        <v>5</v>
+      </c>
+      <c r="AA275">
+        <v>2</v>
+      </c>
+      <c r="AB275">
+        <v>4</v>
+      </c>
+      <c r="AC275">
+        <v>2</v>
+      </c>
+      <c r="AD275">
+        <v>4</v>
+      </c>
+      <c r="AE275">
+        <v>5</v>
+      </c>
+      <c r="AF275">
+        <v>4</v>
+      </c>
+      <c r="AG275">
+        <v>1</v>
+      </c>
+      <c r="AH275">
+        <v>1</v>
+      </c>
+      <c r="AI275">
+        <v>2</v>
+      </c>
+      <c r="AJ275">
+        <v>4</v>
+      </c>
+      <c r="AK275">
+        <v>1</v>
+      </c>
+      <c r="AL275">
+        <v>3</v>
+      </c>
+      <c r="AM275">
+        <v>2</v>
+      </c>
+      <c r="AN275">
+        <v>3</v>
+      </c>
+      <c r="AO275">
+        <v>2</v>
+      </c>
+      <c r="AP275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Zlínský</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>1</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276">
+        <v>1</v>
+      </c>
+      <c r="O276">
+        <v>3</v>
+      </c>
+      <c r="P276">
+        <v>1</v>
+      </c>
+      <c r="Q276">
+        <v>4</v>
+      </c>
+      <c r="R276">
+        <v>2</v>
+      </c>
+      <c r="S276">
+        <v>3</v>
+      </c>
+      <c r="T276">
+        <v>3</v>
+      </c>
+      <c r="U276">
+        <v>2</v>
+      </c>
+      <c r="V276">
+        <v>3</v>
+      </c>
+      <c r="W276">
+        <v>2</v>
+      </c>
+      <c r="X276">
+        <v>4</v>
+      </c>
+      <c r="Y276">
+        <v>4</v>
+      </c>
+      <c r="Z276">
+        <v>3</v>
+      </c>
+      <c r="AA276">
+        <v>2</v>
+      </c>
+      <c r="AB276">
+        <v>3</v>
+      </c>
+      <c r="AC276">
+        <v>4</v>
+      </c>
+      <c r="AD276">
+        <v>3</v>
+      </c>
+      <c r="AE276">
+        <v>2</v>
+      </c>
+      <c r="AF276">
+        <v>3</v>
+      </c>
+      <c r="AG276">
+        <v>2</v>
+      </c>
+      <c r="AH276">
+        <v>3</v>
+      </c>
+      <c r="AI276">
+        <v>4</v>
+      </c>
+      <c r="AJ276">
+        <v>3</v>
+      </c>
+      <c r="AK276">
+        <v>3</v>
+      </c>
+      <c r="AL276">
+        <v>4</v>
+      </c>
+      <c r="AM276">
+        <v>5</v>
+      </c>
+      <c r="AN276">
+        <v>5</v>
+      </c>
+      <c r="AO276">
+        <v>2</v>
+      </c>
+      <c r="AP276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Zlínský</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="H277">
+        <v>1</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+      <c r="K277">
+        <v>1</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277">
+        <v>2</v>
+      </c>
+      <c r="O277">
+        <v>2</v>
+      </c>
+      <c r="P277">
+        <v>3</v>
+      </c>
+      <c r="Q277">
+        <v>2</v>
+      </c>
+      <c r="R277">
+        <v>2</v>
+      </c>
+      <c r="S277">
+        <v>3</v>
+      </c>
+      <c r="T277">
+        <v>3</v>
+      </c>
+      <c r="U277">
+        <v>2</v>
+      </c>
+      <c r="V277">
+        <v>3</v>
+      </c>
+      <c r="W277">
+        <v>2</v>
+      </c>
+      <c r="X277">
+        <v>3</v>
+      </c>
+      <c r="Y277">
+        <v>3</v>
+      </c>
+      <c r="Z277">
+        <v>2</v>
+      </c>
+      <c r="AA277">
+        <v>2</v>
+      </c>
+      <c r="AB277">
+        <v>2</v>
+      </c>
+      <c r="AC277">
+        <v>3</v>
+      </c>
+      <c r="AD277">
+        <v>2</v>
+      </c>
+      <c r="AE277">
+        <v>3</v>
+      </c>
+      <c r="AF277">
+        <v>3</v>
+      </c>
+      <c r="AG277">
+        <v>3</v>
+      </c>
+      <c r="AH277">
+        <v>3</v>
+      </c>
+      <c r="AI277">
+        <v>4</v>
+      </c>
+      <c r="AJ277">
+        <v>4</v>
+      </c>
+      <c r="AK277">
+        <v>3</v>
+      </c>
+      <c r="AL277">
+        <v>3</v>
+      </c>
+      <c r="AM277">
+        <v>4</v>
+      </c>
+      <c r="AN277">
+        <v>5</v>
+      </c>
+      <c r="AO277">
+        <v>2</v>
+      </c>
+      <c r="AP277">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Zlínský</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+      <c r="L278">
+        <v>0</v>
+      </c>
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278">
+        <v>2</v>
+      </c>
+      <c r="O278">
+        <v>3</v>
+      </c>
+      <c r="P278">
+        <v>4</v>
+      </c>
+      <c r="Q278">
+        <v>2</v>
+      </c>
+      <c r="R278">
+        <v>2</v>
+      </c>
+      <c r="S278">
+        <v>1</v>
+      </c>
+      <c r="T278">
+        <v>3</v>
+      </c>
+      <c r="U278">
+        <v>1</v>
+      </c>
+      <c r="V278">
+        <v>3</v>
+      </c>
+      <c r="W278">
+        <v>1</v>
+      </c>
+      <c r="X278">
+        <v>4</v>
+      </c>
+      <c r="Y278">
+        <v>2</v>
+      </c>
+      <c r="Z278">
+        <v>1</v>
+      </c>
+      <c r="AA278">
+        <v>1</v>
+      </c>
+      <c r="AB278">
+        <v>1</v>
+      </c>
+      <c r="AC278">
+        <v>2</v>
+      </c>
+      <c r="AD278">
+        <v>4</v>
+      </c>
+      <c r="AE278">
+        <v>2</v>
+      </c>
+      <c r="AF278">
+        <v>2</v>
+      </c>
+      <c r="AG278">
+        <v>3</v>
+      </c>
+      <c r="AH278">
+        <v>2</v>
+      </c>
+      <c r="AI278">
+        <v>3</v>
+      </c>
+      <c r="AJ278">
+        <v>3</v>
+      </c>
+      <c r="AK278">
+        <v>3</v>
+      </c>
+      <c r="AL278">
+        <v>4</v>
+      </c>
+      <c r="AM278">
+        <v>2</v>
+      </c>
+      <c r="AN278">
+        <v>2</v>
+      </c>
+      <c r="AO278">
+        <v>2</v>
+      </c>
+      <c r="AP278">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Zlínský</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+      <c r="H279">
+        <v>1</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279">
+        <v>1</v>
+      </c>
+      <c r="K279">
+        <v>1</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+      <c r="M279">
+        <v>1</v>
+      </c>
+      <c r="N279">
+        <v>1</v>
+      </c>
+      <c r="O279">
+        <v>1</v>
+      </c>
+      <c r="P279">
+        <v>1</v>
+      </c>
+      <c r="Q279">
+        <v>4</v>
+      </c>
+      <c r="R279">
+        <v>2</v>
+      </c>
+      <c r="S279">
+        <v>4</v>
+      </c>
+      <c r="T279">
+        <v>3</v>
+      </c>
+      <c r="U279">
+        <v>3</v>
+      </c>
+      <c r="V279">
+        <v>4</v>
+      </c>
+      <c r="W279">
+        <v>1</v>
+      </c>
+      <c r="X279">
+        <v>3</v>
+      </c>
+      <c r="Y279">
+        <v>3</v>
+      </c>
+      <c r="Z279">
+        <v>1</v>
+      </c>
+      <c r="AA279">
+        <v>3</v>
+      </c>
+      <c r="AB279">
+        <v>3</v>
+      </c>
+      <c r="AC279">
+        <v>4</v>
+      </c>
+      <c r="AD279">
+        <v>5</v>
+      </c>
+      <c r="AE279">
+        <v>1</v>
+      </c>
+      <c r="AF279">
+        <v>3</v>
+      </c>
+      <c r="AG279">
+        <v>1</v>
+      </c>
+      <c r="AH279">
+        <v>1</v>
+      </c>
+      <c r="AI279">
+        <v>3</v>
+      </c>
+      <c r="AJ279">
+        <v>2</v>
+      </c>
+      <c r="AK279">
+        <v>2</v>
+      </c>
+      <c r="AL279">
+        <v>4</v>
+      </c>
+      <c r="AM279">
+        <v>2</v>
+      </c>
+      <c r="AN279">
+        <v>4</v>
+      </c>
+      <c r="AO279">
+        <v>1</v>
+      </c>
+      <c r="AP279">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Zlínský</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G280">
+        <v>1</v>
+      </c>
+      <c r="H280">
+        <v>1</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <v>1</v>
+      </c>
+      <c r="M280">
+        <v>1</v>
+      </c>
+      <c r="N280">
+        <v>1</v>
+      </c>
+      <c r="O280">
+        <v>2</v>
+      </c>
+      <c r="P280">
+        <v>2</v>
+      </c>
+      <c r="Q280">
+        <v>4</v>
+      </c>
+      <c r="R280">
+        <v>4</v>
+      </c>
+      <c r="S280">
+        <v>4</v>
+      </c>
+      <c r="T280">
+        <v>3</v>
+      </c>
+      <c r="U280">
+        <v>4</v>
+      </c>
+      <c r="V280">
+        <v>3</v>
+      </c>
+      <c r="W280">
+        <v>1</v>
+      </c>
+      <c r="X280">
+        <v>5</v>
+      </c>
+      <c r="Y280">
+        <v>1</v>
+      </c>
+      <c r="Z280">
+        <v>1</v>
+      </c>
+      <c r="AA280">
+        <v>1</v>
+      </c>
+      <c r="AB280">
+        <v>1</v>
+      </c>
+      <c r="AC280">
+        <v>4</v>
+      </c>
+      <c r="AD280">
+        <v>3</v>
+      </c>
+      <c r="AE280">
+        <v>3</v>
+      </c>
+      <c r="AF280">
+        <v>4</v>
+      </c>
+      <c r="AG280">
+        <v>3</v>
+      </c>
+      <c r="AH280">
+        <v>1</v>
+      </c>
+      <c r="AI280">
+        <v>4</v>
+      </c>
+      <c r="AJ280">
+        <v>3</v>
+      </c>
+      <c r="AK280">
+        <v>2</v>
+      </c>
+      <c r="AL280">
+        <v>3</v>
+      </c>
+      <c r="AM280">
+        <v>3</v>
+      </c>
+      <c r="AN280">
+        <v>3</v>
+      </c>
+      <c r="AO280">
+        <v>3</v>
+      </c>
+      <c r="AP280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Zlínský</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G281">
+        <v>1</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>1</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+      <c r="M281">
+        <v>1</v>
+      </c>
+      <c r="N281">
+        <v>1</v>
+      </c>
+      <c r="O281">
+        <v>1</v>
+      </c>
+      <c r="P281">
+        <v>1</v>
+      </c>
+      <c r="Q281">
+        <v>3</v>
+      </c>
+      <c r="R281">
+        <v>4</v>
+      </c>
+      <c r="S281">
+        <v>4</v>
+      </c>
+      <c r="T281">
+        <v>4</v>
+      </c>
+      <c r="U281">
+        <v>3</v>
+      </c>
+      <c r="V281">
+        <v>4</v>
+      </c>
+      <c r="W281">
+        <v>2</v>
+      </c>
+      <c r="X281">
+        <v>2</v>
+      </c>
+      <c r="Y281">
+        <v>2</v>
+      </c>
+      <c r="Z281">
+        <v>1</v>
+      </c>
+      <c r="AA281">
+        <v>2</v>
+      </c>
+      <c r="AB281">
+        <v>2</v>
+      </c>
+      <c r="AC281">
+        <v>1</v>
+      </c>
+      <c r="AD281">
+        <v>4</v>
+      </c>
+      <c r="AE281">
+        <v>1</v>
+      </c>
+      <c r="AF281">
+        <v>2</v>
+      </c>
+      <c r="AG281">
+        <v>2</v>
+      </c>
+      <c r="AH281">
+        <v>2</v>
+      </c>
+      <c r="AI281">
+        <v>4</v>
+      </c>
+      <c r="AJ281">
+        <v>3</v>
+      </c>
+      <c r="AK281">
+        <v>2</v>
+      </c>
+      <c r="AL281">
+        <v>3</v>
+      </c>
+      <c r="AM281">
+        <v>2</v>
+      </c>
+      <c r="AN281">
+        <v>4</v>
+      </c>
+      <c r="AO281">
+        <v>2</v>
+      </c>
+      <c r="AP281">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Zlínský</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
+      <c r="H282">
+        <v>1</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>1</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+      <c r="L282">
+        <v>1</v>
+      </c>
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282">
+        <v>2</v>
+      </c>
+      <c r="O282">
+        <v>2</v>
+      </c>
+      <c r="P282">
+        <v>2</v>
+      </c>
+      <c r="Q282">
+        <v>3</v>
+      </c>
+      <c r="R282">
+        <v>2</v>
+      </c>
+      <c r="S282">
+        <v>4</v>
+      </c>
+      <c r="T282">
+        <v>3</v>
+      </c>
+      <c r="U282">
+        <v>3</v>
+      </c>
+      <c r="V282">
+        <v>3</v>
+      </c>
+      <c r="W282">
+        <v>3</v>
+      </c>
+      <c r="X282">
+        <v>2</v>
+      </c>
+      <c r="Y282">
+        <v>2</v>
+      </c>
+      <c r="Z282">
+        <v>2</v>
+      </c>
+      <c r="AA282">
+        <v>1</v>
+      </c>
+      <c r="AB282">
+        <v>3</v>
+      </c>
+      <c r="AC282">
+        <v>3</v>
+      </c>
+      <c r="AD282">
+        <v>3</v>
+      </c>
+      <c r="AE282">
+        <v>1</v>
+      </c>
+      <c r="AF282">
+        <v>2</v>
+      </c>
+      <c r="AG282">
+        <v>1</v>
+      </c>
+      <c r="AH282">
+        <v>1</v>
+      </c>
+      <c r="AI282">
+        <v>1</v>
+      </c>
+      <c r="AJ282">
+        <v>2</v>
+      </c>
+      <c r="AK282">
+        <v>2</v>
+      </c>
+      <c r="AL282">
+        <v>2</v>
+      </c>
+      <c r="AM282">
+        <v>3</v>
+      </c>
+      <c r="AN282">
+        <v>4</v>
+      </c>
+      <c r="AO282">
+        <v>2</v>
+      </c>
+      <c r="AP282">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Zlínský</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G283">
+        <v>2</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>1</v>
+      </c>
+      <c r="K283">
+        <v>1</v>
+      </c>
+      <c r="L283">
+        <v>1</v>
+      </c>
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283">
+        <v>1</v>
+      </c>
+      <c r="O283">
+        <v>4</v>
+      </c>
+      <c r="P283">
+        <v>3</v>
+      </c>
+      <c r="Q283">
+        <v>1</v>
+      </c>
+      <c r="R283">
+        <v>4</v>
+      </c>
+      <c r="S283">
+        <v>3</v>
+      </c>
+      <c r="T283">
+        <v>3</v>
+      </c>
+      <c r="U283">
+        <v>3</v>
+      </c>
+      <c r="V283">
+        <v>1</v>
+      </c>
+      <c r="X283">
+        <v>2</v>
+      </c>
+      <c r="Y283">
+        <v>1</v>
+      </c>
+      <c r="Z283">
+        <v>3</v>
+      </c>
+      <c r="AA283">
+        <v>3</v>
+      </c>
+      <c r="AB283">
+        <v>2</v>
+      </c>
+      <c r="AC283">
+        <v>2</v>
+      </c>
+      <c r="AD283">
+        <v>2</v>
+      </c>
+      <c r="AE283">
+        <v>1</v>
+      </c>
+      <c r="AF283">
+        <v>4</v>
+      </c>
+      <c r="AG283">
+        <v>2</v>
+      </c>
+      <c r="AH283">
+        <v>1</v>
+      </c>
+      <c r="AI283">
+        <v>2</v>
+      </c>
+      <c r="AJ283">
+        <v>2</v>
+      </c>
+      <c r="AK283">
+        <v>3</v>
+      </c>
+      <c r="AL283">
+        <v>2</v>
+      </c>
+      <c r="AM283">
+        <v>4</v>
+      </c>
+      <c r="AN283">
+        <v>1</v>
+      </c>
+      <c r="AO283">
+        <v>5</v>
+      </c>
+      <c r="AP283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Zlínský</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>1</v>
+      </c>
+      <c r="K284">
+        <v>1</v>
+      </c>
+      <c r="L284">
+        <v>1</v>
+      </c>
+      <c r="M284">
+        <v>1</v>
+      </c>
+      <c r="N284">
+        <v>1</v>
+      </c>
+      <c r="O284">
+        <v>1</v>
+      </c>
+      <c r="P284">
+        <v>2</v>
+      </c>
+      <c r="Q284">
+        <v>4</v>
+      </c>
+      <c r="R284">
+        <v>3</v>
+      </c>
+      <c r="S284">
+        <v>4</v>
+      </c>
+      <c r="T284">
+        <v>4</v>
+      </c>
+      <c r="U284">
+        <v>4</v>
+      </c>
+      <c r="V284">
+        <v>4</v>
+      </c>
+      <c r="W284">
+        <v>1</v>
+      </c>
+      <c r="X284">
+        <v>2</v>
+      </c>
+      <c r="Y284">
+        <v>2</v>
+      </c>
+      <c r="Z284">
+        <v>1</v>
+      </c>
+      <c r="AA284">
+        <v>1</v>
+      </c>
+      <c r="AB284">
+        <v>2</v>
+      </c>
+      <c r="AC284">
+        <v>3</v>
+      </c>
+      <c r="AD284">
+        <v>1</v>
+      </c>
+      <c r="AE284">
+        <v>2</v>
+      </c>
+      <c r="AF284">
+        <v>3</v>
+      </c>
+      <c r="AG284">
+        <v>2</v>
+      </c>
+      <c r="AH284">
+        <v>3</v>
+      </c>
+      <c r="AI284">
+        <v>4</v>
+      </c>
+      <c r="AJ284">
+        <v>3</v>
+      </c>
+      <c r="AK284">
+        <v>1</v>
+      </c>
+      <c r="AL284">
+        <v>4</v>
+      </c>
+      <c r="AM284">
+        <v>4</v>
+      </c>
+      <c r="AN284">
+        <v>4</v>
+      </c>
+      <c r="AO284">
+        <v>2</v>
+      </c>
+      <c r="AP284">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Zlínský</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>9.A</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G285">
+        <v>2</v>
+      </c>
+      <c r="H285">
+        <v>1</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>1</v>
+      </c>
+      <c r="K285">
+        <v>1</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285">
+        <v>3</v>
+      </c>
+      <c r="O285">
+        <v>4</v>
+      </c>
+      <c r="P285">
+        <v>2</v>
+      </c>
+      <c r="Q285">
+        <v>4</v>
+      </c>
+      <c r="R285">
+        <v>3</v>
+      </c>
+      <c r="S285">
+        <v>3</v>
+      </c>
+      <c r="T285">
+        <v>3</v>
+      </c>
+      <c r="U285">
+        <v>3</v>
+      </c>
+      <c r="V285">
+        <v>2</v>
+      </c>
+      <c r="W285">
+        <v>3</v>
+      </c>
+      <c r="X285">
+        <v>2</v>
+      </c>
+      <c r="Y285">
+        <v>2</v>
+      </c>
+      <c r="Z285">
+        <v>1</v>
+      </c>
+      <c r="AA285">
+        <v>2</v>
+      </c>
+      <c r="AB285">
+        <v>3</v>
+      </c>
+      <c r="AC285">
+        <v>3</v>
+      </c>
+      <c r="AD285">
+        <v>2</v>
+      </c>
+      <c r="AE285">
+        <v>2</v>
+      </c>
+      <c r="AF285">
+        <v>4</v>
+      </c>
+      <c r="AG285">
+        <v>2</v>
+      </c>
+      <c r="AH285">
+        <v>1</v>
+      </c>
+      <c r="AI285">
+        <v>3</v>
+      </c>
+      <c r="AJ285">
+        <v>2</v>
+      </c>
+      <c r="AK285">
+        <v>2</v>
+      </c>
+      <c r="AL285">
+        <v>3</v>
+      </c>
+      <c r="AM285">
+        <v>3</v>
+      </c>
+      <c r="AN285">
+        <v>3</v>
+      </c>
+      <c r="AO285">
+        <v>3</v>
+      </c>
+      <c r="AP285">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>S11</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Ústecký</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G286">
+        <v>2</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286">
+        <v>2</v>
+      </c>
+      <c r="O286">
+        <v>2</v>
+      </c>
+      <c r="P286">
+        <v>2</v>
+      </c>
+      <c r="Q286">
+        <v>2</v>
+      </c>
+      <c r="R286">
+        <v>1</v>
+      </c>
+      <c r="S286">
+        <v>2</v>
+      </c>
+      <c r="T286">
+        <v>1</v>
+      </c>
+      <c r="U286">
+        <v>1</v>
+      </c>
+      <c r="V286">
+        <v>1</v>
+      </c>
+      <c r="W286">
+        <v>2</v>
+      </c>
+      <c r="X286">
+        <v>1</v>
+      </c>
+      <c r="Y286">
+        <v>1</v>
+      </c>
+      <c r="Z286">
+        <v>1</v>
+      </c>
+      <c r="AA286">
+        <v>2</v>
+      </c>
+      <c r="AB286">
+        <v>1</v>
+      </c>
+      <c r="AC286">
+        <v>2</v>
+      </c>
+      <c r="AD286">
+        <v>1</v>
+      </c>
+      <c r="AE286">
+        <v>2</v>
+      </c>
+      <c r="AF286">
+        <v>1</v>
+      </c>
+      <c r="AG286">
+        <v>2</v>
+      </c>
+      <c r="AH286">
+        <v>2</v>
+      </c>
+      <c r="AI286">
+        <v>1</v>
+      </c>
+      <c r="AJ286">
+        <v>1</v>
+      </c>
+      <c r="AK286">
+        <v>2</v>
+      </c>
+      <c r="AL286">
+        <v>1</v>
+      </c>
+      <c r="AM286">
+        <v>5</v>
+      </c>
+      <c r="AN286">
+        <v>4</v>
+      </c>
+      <c r="AO286">
+        <v>4</v>
+      </c>
+      <c r="AP286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>S11</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Ústecký</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G287">
+        <v>3</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>1</v>
+      </c>
+      <c r="K287">
+        <v>1</v>
+      </c>
+      <c r="L287">
+        <v>0</v>
+      </c>
+      <c r="M287">
+        <v>0</v>
+      </c>
+      <c r="N287">
+        <v>1</v>
+      </c>
+      <c r="O287">
+        <v>2</v>
+      </c>
+      <c r="P287">
+        <v>3</v>
+      </c>
+      <c r="Q287">
+        <v>3</v>
+      </c>
+      <c r="R287">
+        <v>3</v>
+      </c>
+      <c r="S287">
+        <v>2</v>
+      </c>
+      <c r="T287">
+        <v>2</v>
+      </c>
+      <c r="U287">
+        <v>4</v>
+      </c>
+      <c r="V287">
+        <v>1</v>
+      </c>
+      <c r="W287">
+        <v>3</v>
+      </c>
+      <c r="X287">
+        <v>4</v>
+      </c>
+      <c r="Y287">
+        <v>4</v>
+      </c>
+      <c r="Z287">
+        <v>1</v>
+      </c>
+      <c r="AA287">
+        <v>4</v>
+      </c>
+      <c r="AB287">
+        <v>2</v>
+      </c>
+      <c r="AC287">
+        <v>2</v>
+      </c>
+      <c r="AD287">
+        <v>2</v>
+      </c>
+      <c r="AE287">
+        <v>1</v>
+      </c>
+      <c r="AF287">
+        <v>5</v>
+      </c>
+      <c r="AG287">
+        <v>2</v>
+      </c>
+      <c r="AH287">
+        <v>3</v>
+      </c>
+      <c r="AI287">
+        <v>3</v>
+      </c>
+      <c r="AJ287">
+        <v>4</v>
+      </c>
+      <c r="AK287">
+        <v>4</v>
+      </c>
+      <c r="AL287">
+        <v>5</v>
+      </c>
+      <c r="AM287">
+        <v>3</v>
+      </c>
+      <c r="AN287">
+        <v>1</v>
+      </c>
+      <c r="AO287">
+        <v>3</v>
+      </c>
+      <c r="AP287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>S11</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Ústecký</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <v>0</v>
+      </c>
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288">
+        <v>2</v>
+      </c>
+      <c r="O288">
+        <v>4</v>
+      </c>
+      <c r="P288">
+        <v>1</v>
+      </c>
+      <c r="Q288">
+        <v>2</v>
+      </c>
+      <c r="R288">
+        <v>1</v>
+      </c>
+      <c r="S288">
+        <v>2</v>
+      </c>
+      <c r="T288">
+        <v>3</v>
+      </c>
+      <c r="U288">
+        <v>3</v>
+      </c>
+      <c r="V288">
+        <v>4</v>
+      </c>
+      <c r="W288">
+        <v>3</v>
+      </c>
+      <c r="X288">
+        <v>1</v>
+      </c>
+      <c r="Y288">
+        <v>4</v>
+      </c>
+      <c r="Z288">
+        <v>4</v>
+      </c>
+      <c r="AA288">
+        <v>3</v>
+      </c>
+      <c r="AB288">
+        <v>2</v>
+      </c>
+      <c r="AC288">
+        <v>1</v>
+      </c>
+      <c r="AD288">
+        <v>4</v>
+      </c>
+      <c r="AE288">
+        <v>2</v>
+      </c>
+      <c r="AF288">
+        <v>2</v>
+      </c>
+      <c r="AG288">
+        <v>5</v>
+      </c>
+      <c r="AH288">
+        <v>3</v>
+      </c>
+      <c r="AI288">
+        <v>3</v>
+      </c>
+      <c r="AJ288">
+        <v>2</v>
+      </c>
+      <c r="AK288">
+        <v>4</v>
+      </c>
+      <c r="AL288">
+        <v>2</v>
+      </c>
+      <c r="AM288">
+        <v>2</v>
+      </c>
+      <c r="AN288">
+        <v>5</v>
+      </c>
+      <c r="AO288">
+        <v>3</v>
+      </c>
+      <c r="AP288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>S11</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Ústecký</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G289">
+        <v>2</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
+      <c r="J289">
+        <v>1</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+      <c r="M289">
+        <v>1</v>
+      </c>
+      <c r="N289">
+        <v>2</v>
+      </c>
+      <c r="O289">
+        <v>3</v>
+      </c>
+      <c r="P289">
+        <v>3</v>
+      </c>
+      <c r="Q289">
+        <v>4</v>
+      </c>
+      <c r="R289">
+        <v>2</v>
+      </c>
+      <c r="S289">
+        <v>1</v>
+      </c>
+      <c r="T289">
+        <v>3</v>
+      </c>
+      <c r="U289">
+        <v>2</v>
+      </c>
+      <c r="V289">
+        <v>3</v>
+      </c>
+      <c r="W289">
+        <v>2</v>
+      </c>
+      <c r="X289">
+        <v>3</v>
+      </c>
+      <c r="Y289">
+        <v>2</v>
+      </c>
+      <c r="Z289">
+        <v>2</v>
+      </c>
+      <c r="AA289">
+        <v>2</v>
+      </c>
+      <c r="AB289">
+        <v>2</v>
+      </c>
+      <c r="AC289">
+        <v>2</v>
+      </c>
+      <c r="AD289">
+        <v>2</v>
+      </c>
+      <c r="AE289">
+        <v>3</v>
+      </c>
+      <c r="AF289">
+        <v>2</v>
+      </c>
+      <c r="AG289">
+        <v>3</v>
+      </c>
+      <c r="AH289">
+        <v>2</v>
+      </c>
+      <c r="AI289">
+        <v>4</v>
+      </c>
+      <c r="AJ289">
+        <v>3</v>
+      </c>
+      <c r="AK289">
+        <v>3</v>
+      </c>
+      <c r="AL289">
+        <v>3</v>
+      </c>
+      <c r="AM289">
+        <v>2</v>
+      </c>
+      <c r="AN289">
+        <v>3</v>
+      </c>
+      <c r="AO289">
+        <v>3</v>
+      </c>
+      <c r="AP289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>S11</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Ústecký</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G290">
+        <v>1</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
+      <c r="J290">
+        <v>1</v>
+      </c>
+      <c r="K290">
+        <v>1</v>
+      </c>
+      <c r="L290">
+        <v>0</v>
+      </c>
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290">
+        <v>1</v>
+      </c>
+      <c r="O290">
+        <v>4</v>
+      </c>
+      <c r="P290">
+        <v>4</v>
+      </c>
+      <c r="Q290">
+        <v>1</v>
+      </c>
+      <c r="R290">
+        <v>1</v>
+      </c>
+      <c r="S290">
+        <v>1</v>
+      </c>
+      <c r="T290">
+        <v>3</v>
+      </c>
+      <c r="U290">
+        <v>4</v>
+      </c>
+      <c r="V290">
+        <v>4</v>
+      </c>
+      <c r="W290">
+        <v>1</v>
+      </c>
+      <c r="X290">
+        <v>1</v>
+      </c>
+      <c r="Y290">
+        <v>3</v>
+      </c>
+      <c r="Z290">
+        <v>1</v>
+      </c>
+      <c r="AA290">
+        <v>3</v>
+      </c>
+      <c r="AB290">
+        <v>3</v>
+      </c>
+      <c r="AC290">
+        <v>5</v>
+      </c>
+      <c r="AD290">
+        <v>3</v>
+      </c>
+      <c r="AE290">
+        <v>3</v>
+      </c>
+      <c r="AF290">
+        <v>3</v>
+      </c>
+      <c r="AG290">
+        <v>3</v>
+      </c>
+      <c r="AH290">
+        <v>2</v>
+      </c>
+      <c r="AI290">
+        <v>5</v>
+      </c>
+      <c r="AJ290">
+        <v>3</v>
+      </c>
+      <c r="AK290">
+        <v>3</v>
+      </c>
+      <c r="AL290">
+        <v>1</v>
+      </c>
+      <c r="AM290">
+        <v>3</v>
+      </c>
+      <c r="AN290">
+        <v>3</v>
+      </c>
+      <c r="AO290">
+        <v>3</v>
+      </c>
+      <c r="AP290">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>S11</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Ústecký</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <v>0</v>
+      </c>
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291">
+        <v>2</v>
+      </c>
+      <c r="O291">
+        <v>1</v>
+      </c>
+      <c r="P291">
+        <v>1</v>
+      </c>
+      <c r="Q291">
+        <v>2</v>
+      </c>
+      <c r="R291">
+        <v>2</v>
+      </c>
+      <c r="S291">
+        <v>1</v>
+      </c>
+      <c r="T291">
+        <v>1</v>
+      </c>
+      <c r="U291">
+        <v>1</v>
+      </c>
+      <c r="V291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>S11</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Ústecký</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="H292">
+        <v>1</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>1</v>
+      </c>
+      <c r="K292">
+        <v>1</v>
+      </c>
+      <c r="L292">
+        <v>1</v>
+      </c>
+      <c r="M292">
+        <v>1</v>
+      </c>
+      <c r="N292">
+        <v>1</v>
+      </c>
+      <c r="O292">
+        <v>2</v>
+      </c>
+      <c r="P292">
+        <v>1</v>
+      </c>
+      <c r="Q292">
+        <v>3</v>
+      </c>
+      <c r="R292">
+        <v>3</v>
+      </c>
+      <c r="S292">
+        <v>4</v>
+      </c>
+      <c r="T292">
+        <v>1</v>
+      </c>
+      <c r="U292">
+        <v>4</v>
+      </c>
+      <c r="V292">
+        <v>2</v>
+      </c>
+      <c r="W292">
+        <v>3</v>
+      </c>
+      <c r="X292">
+        <v>4</v>
+      </c>
+      <c r="Y292">
+        <v>3</v>
+      </c>
+      <c r="Z292">
+        <v>3</v>
+      </c>
+      <c r="AA292">
+        <v>4</v>
+      </c>
+      <c r="AB292">
+        <v>3</v>
+      </c>
+      <c r="AC292">
+        <v>3</v>
+      </c>
+      <c r="AD292">
+        <v>3</v>
+      </c>
+      <c r="AE292">
+        <v>3</v>
+      </c>
+      <c r="AF292">
+        <v>4</v>
+      </c>
+      <c r="AG292">
+        <v>4</v>
+      </c>
+      <c r="AH292">
+        <v>3</v>
+      </c>
+      <c r="AI292">
+        <v>4</v>
+      </c>
+      <c r="AJ292">
+        <v>3</v>
+      </c>
+      <c r="AK292">
+        <v>3</v>
+      </c>
+      <c r="AL292">
+        <v>2</v>
+      </c>
+      <c r="AM292">
+        <v>2</v>
+      </c>
+      <c r="AN292">
+        <v>2</v>
+      </c>
+      <c r="AO292">
+        <v>1</v>
+      </c>
+      <c r="AP292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>S11</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Ústecký</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G293">
+        <v>2</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>0</v>
+      </c>
+      <c r="M293">
+        <v>0</v>
+      </c>
+      <c r="N293">
+        <v>1</v>
+      </c>
+      <c r="O293">
+        <v>3</v>
+      </c>
+      <c r="P293">
+        <v>2</v>
+      </c>
+      <c r="Q293">
+        <v>3</v>
+      </c>
+      <c r="R293">
+        <v>1</v>
+      </c>
+      <c r="S293">
+        <v>2</v>
+      </c>
+      <c r="T293">
+        <v>2</v>
+      </c>
+      <c r="U293">
+        <v>3</v>
+      </c>
+      <c r="V293">
+        <v>3</v>
+      </c>
+      <c r="W293">
+        <v>3</v>
+      </c>
+      <c r="X293">
+        <v>4</v>
+      </c>
+      <c r="Y293">
+        <v>3</v>
+      </c>
+      <c r="Z293">
+        <v>4</v>
+      </c>
+      <c r="AA293">
+        <v>2</v>
+      </c>
+      <c r="AB293">
+        <v>2</v>
+      </c>
+      <c r="AC293">
+        <v>1</v>
+      </c>
+      <c r="AD293">
+        <v>3</v>
+      </c>
+      <c r="AE293">
+        <v>2</v>
+      </c>
+      <c r="AF293">
+        <v>2</v>
+      </c>
+      <c r="AG293">
+        <v>4</v>
+      </c>
+      <c r="AH293">
+        <v>1</v>
+      </c>
+      <c r="AI293">
+        <v>5</v>
+      </c>
+      <c r="AJ293">
+        <v>2</v>
+      </c>
+      <c r="AK293">
+        <v>3</v>
+      </c>
+      <c r="AL293">
+        <v>1</v>
+      </c>
+      <c r="AM293">
+        <v>2</v>
+      </c>
+      <c r="AN293">
+        <v>3</v>
+      </c>
+      <c r="AO293">
+        <v>2</v>
+      </c>
+      <c r="AP293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>S11</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>lower_secondary</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Ústecký</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>1</v>
+      </c>
+      <c r="K294">
+        <v>1</v>
+      </c>
+      <c r="L294">
+        <v>0</v>
+      </c>
+      <c r="M294">
+        <v>0</v>
+      </c>
+      <c r="N294">
+        <v>4</v>
+      </c>
+      <c r="O294">
+        <v>2</v>
+      </c>
+      <c r="P294">
+        <v>2</v>
+      </c>
+      <c r="Q294">
+        <v>1</v>
+      </c>
+      <c r="R294">
+        <v>2</v>
+      </c>
+      <c r="S294">
+        <v>1</v>
+      </c>
+      <c r="T294">
+        <v>3</v>
+      </c>
+      <c r="U294">
+        <v>3</v>
+      </c>
+      <c r="V294">
+        <v>4</v>
+      </c>
+      <c r="W294">
+        <v>2</v>
+      </c>
+      <c r="X294">
+        <v>1</v>
+      </c>
+      <c r="Y294">
+        <v>1</v>
+      </c>
+      <c r="Z294">
+        <v>1</v>
+      </c>
+      <c r="AA294">
+        <v>2</v>
+      </c>
+      <c r="AB294">
+        <v>1</v>
+      </c>
+      <c r="AC294">
+        <v>1</v>
+      </c>
+      <c r="AD294">
+        <v>2</v>
+      </c>
+      <c r="AE294">
+        <v>1</v>
+      </c>
+      <c r="AF294">
+        <v>1</v>
+      </c>
+      <c r="AG294">
+        <v>2</v>
+      </c>
+      <c r="AH294">
+        <v>2</v>
+      </c>
+      <c r="AI294">
+        <v>1</v>
+      </c>
+      <c r="AJ294">
+        <v>1</v>
+      </c>
+      <c r="AK294">
+        <v>2</v>
+      </c>
+      <c r="AL294">
+        <v>2</v>
+      </c>
+      <c r="AM294">
+        <v>5</v>
+      </c>
+      <c r="AN294">
+        <v>4</v>
+      </c>
+      <c r="AO294">
+        <v>4</v>
+      </c>
+      <c r="AP294">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/normalised_responses.xlsx
+++ b/normalised_responses.xlsx
@@ -39858,7 +39858,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -40278,7 +40278,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
